--- a/testFile/testFile.xlsx
+++ b/testFile/testFile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="175">
   <si>
     <t>case_name</t>
   </si>
@@ -496,6 +496,39 @@
   </si>
   <si>
     <t>test_service_basic_status:测试获取服务的基本状态接口，service无键无值</t>
+  </si>
+  <si>
+    <t>test_service_ports:测试获取所有服务端口详情，ip,password，service均正确输入</t>
+  </si>
+  <si>
+    <t>Get /service/ports</t>
+  </si>
+  <si>
+    <t>test_service_ports:测试获取所有服务端口详情，ip有键无值,password正确输入</t>
+  </si>
+  <si>
+    <t>test_service_ports:测试获取所有服务端口详情，ip不通,password正确输入</t>
+  </si>
+  <si>
+    <t>test_service_ports:测试获取所有服务端口详情，ip正确，password密码错误</t>
+  </si>
+  <si>
+    <t>test_service_ports:测试获取所有服务端口详情，ip正确，password密码为空</t>
+  </si>
+  <si>
+    <t>test_service_ports:测试获取所有服务端口详情，无ip键值</t>
+  </si>
+  <si>
+    <t>test_service_ports:测试获取所有服务端口详情，无password键值</t>
+  </si>
+  <si>
+    <t>test_service_ports:测试获取所有服务端口详情，service不存在</t>
+  </si>
+  <si>
+    <t>test_service_ports:测试获取所有服务端口详情，service有键无值</t>
+  </si>
+  <si>
+    <t>test_service_ports:测试获取所有服务端口详情，service无键无值</t>
   </si>
   <si>
     <t>测试软件版本类型接口（software_version）:ip正确，password错误</t>
@@ -517,9 +550,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -531,7 +564,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,22 +577,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,7 +600,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,29 +662,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -660,7 +686,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,6 +699,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -683,7 +716,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,13 +740,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,85 +764,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,19 +788,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,25 +854,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,7 +884,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,8 +913,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,6 +930,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,30 +993,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -982,10 +1015,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -994,133 +1027,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1491,10 +1524,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3871,7 +3904,6 @@
       <c r="D80" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E80"/>
       <c r="F80" s="5" t="s">
         <v>16</v>
       </c>
@@ -4006,7 +4038,6 @@
       <c r="F84" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G84" s="3"/>
       <c r="H84" s="4" t="s">
         <v>33</v>
       </c>
@@ -4136,6 +4167,317 @@
         <v>148</v>
       </c>
       <c r="K88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89" t="s">
+        <v>161</v>
+      </c>
+      <c r="K89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>86</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90" t="s">
+        <v>161</v>
+      </c>
+      <c r="K90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>163</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>28</v>
+      </c>
+      <c r="J91" t="s">
+        <v>161</v>
+      </c>
+      <c r="K91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>164</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>86</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I92" t="s">
+        <v>28</v>
+      </c>
+      <c r="J92" t="s">
+        <v>91</v>
+      </c>
+      <c r="K92" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>165</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>86</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I93" t="s">
+        <v>28</v>
+      </c>
+      <c r="J93" t="s">
+        <v>91</v>
+      </c>
+      <c r="K93" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>166</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I94" t="s">
+        <v>28</v>
+      </c>
+      <c r="J94" t="s">
+        <v>34</v>
+      </c>
+      <c r="K94" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>167</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>86</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I95" t="s">
+        <v>28</v>
+      </c>
+      <c r="J95" t="s">
+        <v>91</v>
+      </c>
+      <c r="K95" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>86</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J96" t="s">
+        <v>161</v>
+      </c>
+      <c r="K96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>161</v>
+      </c>
+      <c r="K97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" t="s">
+        <v>170</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>86</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" t="s">
+        <v>161</v>
+      </c>
+      <c r="K98" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4144,7 +4486,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="D2:D5 H3:H5 F2:F5" numberStoredAsText="1"/>
+    <ignoredError sqref="F2:F5 H3:H5 D2:D5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4162,13 +4504,13 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -4192,13 +4534,13 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -4221,13 +4563,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>

--- a/testFile/testFile.xlsx
+++ b/testFile/testFile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="185">
   <si>
     <t>case_name</t>
   </si>
@@ -522,13 +522,43 @@
     <t>test_service_ports:测试获取所有服务端口详情，无password键值</t>
   </si>
   <si>
-    <t>test_service_ports:测试获取所有服务端口详情，service不存在</t>
-  </si>
-  <si>
-    <t>test_service_ports:测试获取所有服务端口详情，service有键无值</t>
-  </si>
-  <si>
-    <t>test_service_ports:测试获取所有服务端口详情，service无键无值</t>
+    <t>test_service_trade:测试获取服务的交易信息接口，ip,password，service均正确输入</t>
+  </si>
+  <si>
+    <t>/device/service/trade</t>
+  </si>
+  <si>
+    <t>Get service/trade</t>
+  </si>
+  <si>
+    <t>test_service_trade:测试获取服务的交易信息接口，ip有键无值,password正确输入</t>
+  </si>
+  <si>
+    <t>test_service_trade:测试获取服务的交易信息接口，ip不通,password正确输入</t>
+  </si>
+  <si>
+    <t>test_service_trade:测试获取服务的交易信息接口，ip正确，password密码错误</t>
+  </si>
+  <si>
+    <t>Requester:null;Request source api :/device/service/trade  fail</t>
+  </si>
+  <si>
+    <t>test_service_trade:测试获取服务的交易信息接口，ip正确，password密码为空</t>
+  </si>
+  <si>
+    <t>test_service_trade:测试获取服务的交易信息接口，无ip键值</t>
+  </si>
+  <si>
+    <t>test_service_trade:测试获取服务的交易信息接口，无password键值</t>
+  </si>
+  <si>
+    <t>test_service_trade:测试获取服务的交易信息接口，service不存在</t>
+  </si>
+  <si>
+    <t>test_service_trade:测试获取服务的交易信息接口，service有键无值</t>
+  </si>
+  <si>
+    <t>test_service_trade:测试获取服务的交易信息接口，service无键无值</t>
   </si>
   <si>
     <t>测试软件版本类型接口（software_version）:ip正确，password错误</t>
@@ -1524,10 +1554,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="D70" workbookViewId="0">
+      <selection activeCell="K105" sqref="K105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4399,7 +4429,7 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>14</v>
@@ -4411,13 +4441,13 @@
         <v>16</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J96" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="K96" t="s">
         <v>19</v>
@@ -4425,28 +4455,28 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
+        <v>171</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
         <v>169</v>
       </c>
-      <c r="B97" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97" t="s">
-        <v>86</v>
-      </c>
       <c r="D97" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E97" t="s">
-        <v>15</v>
-      </c>
       <c r="F97" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="G97" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="H97" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J97" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="K97" t="s">
         <v>19</v>
@@ -4454,30 +4484,251 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
+        <v>172</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>169</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>28</v>
+      </c>
+      <c r="J98" t="s">
         <v>170</v>
       </c>
-      <c r="B98" t="s">
-        <v>12</v>
-      </c>
-      <c r="C98" t="s">
-        <v>86</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" t="s">
-        <v>15</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J98" t="s">
-        <v>161</v>
-      </c>
       <c r="K98" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" t="s">
+        <v>173</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>169</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I99" t="s">
+        <v>28</v>
+      </c>
+      <c r="J99" t="s">
+        <v>174</v>
+      </c>
+      <c r="K99" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>169</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I100" t="s">
+        <v>28</v>
+      </c>
+      <c r="J100" t="s">
+        <v>174</v>
+      </c>
+      <c r="K100" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>176</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>169</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I101" t="s">
+        <v>28</v>
+      </c>
+      <c r="J101" t="s">
+        <v>34</v>
+      </c>
+      <c r="K101" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>177</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>169</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I102" t="s">
+        <v>28</v>
+      </c>
+      <c r="J102" t="s">
+        <v>174</v>
+      </c>
+      <c r="K102" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>178</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>169</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J103" t="s">
+        <v>170</v>
+      </c>
+      <c r="K103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>179</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>169</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J104" t="s">
+        <v>170</v>
+      </c>
+      <c r="K104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>180</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>169</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J105" t="s">
+        <v>170</v>
+      </c>
+      <c r="K105" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4504,13 +4755,13 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -4534,13 +4785,13 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -4563,13 +4814,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>

--- a/testFile/testFile.xlsx
+++ b/testFile/testFile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="198">
   <si>
     <t>case_name</t>
   </si>
@@ -559,6 +559,45 @@
   </si>
   <si>
     <t>test_service_trade:测试获取服务的交易信息接口，service无键无值</t>
+  </si>
+  <si>
+    <t>test_service_response_time:测试获取服务的交易信息接口，ip,password，service均正确输入</t>
+  </si>
+  <si>
+    <t>/device/service/response_time</t>
+  </si>
+  <si>
+    <t>Get service/response_time</t>
+  </si>
+  <si>
+    <t>test_service_response_time:测试获取服务的交易信息接口，ip有键无值,password正确输入</t>
+  </si>
+  <si>
+    <t>test_service_response_time:测试获取服务的交易信息接口，ip不通,password正确输入</t>
+  </si>
+  <si>
+    <t>test_service_response_time:测试获取服务的交易信息接口，ip正确，password密码错误</t>
+  </si>
+  <si>
+    <t>Requester:null;Request source api :/device/service/response_time  fail</t>
+  </si>
+  <si>
+    <t>test_service_response_time:测试获取服务的交易信息接口，ip正确，password密码为空</t>
+  </si>
+  <si>
+    <t>test_service_response_time:测试获取服务的交易信息接口，无ip键值</t>
+  </si>
+  <si>
+    <t>test_service_response_time:测试获取服务的交易信息接口，无password键值</t>
+  </si>
+  <si>
+    <t>test_service_response_time:测试获取服务的交易信息接口，service不存在</t>
+  </si>
+  <si>
+    <t>test_service_response_time:测试获取服务的交易信息接口，service有键无值</t>
+  </si>
+  <si>
+    <t>test_service_response_time:测试获取服务的交易信息接口，service无键无值</t>
   </si>
   <si>
     <t>测试软件版本类型接口（software_version）:ip正确，password错误</t>
@@ -1554,10 +1593,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D70" workbookViewId="0">
-      <selection activeCell="K105" sqref="K105"/>
+    <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
+      <selection activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4729,6 +4768,317 @@
         <v>170</v>
       </c>
       <c r="K105" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>181</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>182</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J106" t="s">
+        <v>183</v>
+      </c>
+      <c r="K106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>184</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>182</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J107" t="s">
+        <v>183</v>
+      </c>
+      <c r="K107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>185</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>182</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>28</v>
+      </c>
+      <c r="J108" t="s">
+        <v>183</v>
+      </c>
+      <c r="K108" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>186</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>182</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I109" t="s">
+        <v>28</v>
+      </c>
+      <c r="J109" t="s">
+        <v>187</v>
+      </c>
+      <c r="K109" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>188</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>182</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I110" t="s">
+        <v>28</v>
+      </c>
+      <c r="J110" t="s">
+        <v>187</v>
+      </c>
+      <c r="K110" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
+        <v>189</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" t="s">
+        <v>182</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I111" t="s">
+        <v>28</v>
+      </c>
+      <c r="J111" t="s">
+        <v>34</v>
+      </c>
+      <c r="K111" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
+        <v>190</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>182</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I112" t="s">
+        <v>28</v>
+      </c>
+      <c r="J112" t="s">
+        <v>187</v>
+      </c>
+      <c r="K112" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" t="s">
+        <v>191</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>182</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J113" t="s">
+        <v>183</v>
+      </c>
+      <c r="K113" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" t="s">
+        <v>192</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>182</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J114" t="s">
+        <v>183</v>
+      </c>
+      <c r="K114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" t="s">
+        <v>193</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>182</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J115" t="s">
+        <v>183</v>
+      </c>
+      <c r="K115" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4755,13 +5105,13 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -4785,13 +5135,13 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -4814,13 +5164,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
